--- a/schedules/HIB.xlsx
+++ b/schedules/HIB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="133">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -914,6 +914,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -932,24 +935,21 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,9 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217:E217"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1465,13 +1463,13 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -1514,13 +1512,13 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1534,9 +1532,9 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
       <c r="F6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1548,13 +1546,13 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="41"/>
       <c r="F7" s="10" t="s">
         <v>1</v>
       </c>
@@ -1566,9 +1564,9 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
       <c r="F8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1667,11 +1665,11 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="F14" s="10" t="s">
         <v>24</v>
       </c>
@@ -1937,12 +1935,12 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="18"/>
@@ -2027,11 +2025,11 @@
       <c r="E71" s="9"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
@@ -2130,12 +2128,12 @@
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="18"/>
@@ -2222,11 +2220,11 @@
       <c r="E91" s="9"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
@@ -2309,12 +2307,12 @@
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="18"/>
@@ -2401,11 +2399,11 @@
       <c r="E110" s="9"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="45" t="s">
+      <c r="B111" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
@@ -2504,12 +2502,12 @@
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="45" t="s">
+      <c r="B122" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
-      <c r="E122" s="45"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="18"/>
@@ -2596,11 +2594,11 @@
       <c r="E130" s="9"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="45" t="s">
+      <c r="B131" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C131" s="45"/>
-      <c r="D131" s="45"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
@@ -2662,12 +2660,12 @@
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="45" t="s">
+      <c r="B139" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C139" s="45"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="45"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="18"/>
@@ -2754,11 +2752,11 @@
       <c r="E147" s="9"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="45" t="s">
+      <c r="B148" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C148" s="45"/>
-      <c r="D148" s="45"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="39"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="6" t="s">
@@ -2856,12 +2854,12 @@
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="45" t="s">
+      <c r="B159" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C159" s="45"/>
-      <c r="D159" s="45"/>
-      <c r="E159" s="45"/>
+      <c r="C159" s="39"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="39"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="18"/>
@@ -2946,11 +2944,11 @@
       <c r="E167" s="9"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="45" t="s">
+      <c r="B168" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C168" s="45"/>
-      <c r="D168" s="45"/>
+      <c r="C168" s="39"/>
+      <c r="D168" s="39"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="6" t="s">
@@ -3037,12 +3035,12 @@
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B178" s="45" t="s">
+      <c r="B178" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C178" s="45"/>
-      <c r="D178" s="45"/>
-      <c r="E178" s="45"/>
+      <c r="C178" s="39"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="39"/>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="18"/>
@@ -3129,11 +3127,11 @@
       <c r="E186" s="9"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B187" s="45" t="s">
+      <c r="B187" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C187" s="45"/>
-      <c r="D187" s="45"/>
+      <c r="C187" s="39"/>
+      <c r="D187" s="39"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" s="6" t="s">
@@ -3223,12 +3221,12 @@
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B197" s="45" t="s">
+      <c r="B197" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C197" s="45"/>
-      <c r="D197" s="45"/>
-      <c r="E197" s="45"/>
+      <c r="C197" s="39"/>
+      <c r="D197" s="39"/>
+      <c r="E197" s="39"/>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" s="18"/>
@@ -3313,11 +3311,11 @@
       <c r="E205" s="9"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B206" s="45" t="s">
+      <c r="B206" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C206" s="45"/>
-      <c r="D206" s="45"/>
+      <c r="C206" s="39"/>
+      <c r="D206" s="39"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" s="6" t="s">
@@ -3417,12 +3415,12 @@
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B217" s="45" t="s">
+      <c r="B217" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C217" s="45"/>
-      <c r="D217" s="45"/>
-      <c r="E217" s="45"/>
+      <c r="C217" s="39"/>
+      <c r="D217" s="39"/>
+      <c r="E217" s="39"/>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218" s="18"/>
@@ -3472,7 +3470,9 @@
       <c r="B222" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C222" s="9"/>
+      <c r="C222" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
     </row>
@@ -3505,11 +3505,11 @@
       <c r="E225" s="9"/>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B226" s="45" t="s">
+      <c r="B226" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C226" s="45"/>
-      <c r="D226" s="45"/>
+      <c r="C226" s="39"/>
+      <c r="D226" s="39"/>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B227" s="6" t="s">
@@ -3555,6 +3555,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="24">
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B217:E217"/>
     <mergeCell ref="B226:D226"/>
     <mergeCell ref="F2:J2"/>
@@ -3571,14 +3579,6 @@
     <mergeCell ref="B131:D131"/>
     <mergeCell ref="B148:D148"/>
     <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3603,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4347,7 +4347,7 @@
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C222&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D222&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E222&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="" interval="" grace=""/&gt;</v>
+        <v xml:space="preserve">    &lt;overdue age="12 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
@@ -4424,42 +4424,42 @@
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="46" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
       <c r="R3" s="46" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="46"/>
       <c r="T3" s="46"/>
       <c r="U3" s="46"/>
-      <c r="V3" s="55" t="s">
+      <c r="V3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="49" t="s">
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
@@ -4492,62 +4492,62 @@
       <c r="AC4" s="29"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52" t="s">
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="53" t="s">
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="52" t="s">
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="54" t="s">
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H8" s="30"/>
@@ -4572,48 +4572,48 @@
       <c r="AA8" s="29"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57" t="s">
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58" t="s">
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H12" s="30"/>
@@ -4630,38 +4630,38 @@
       <c r="S12" s="29"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48" t="s">
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H16" s="30"/>
@@ -4678,20 +4678,20 @@
       <c r="S16" s="29"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
     </row>
     <row r="23" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
@@ -4705,42 +4705,42 @@
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
       <c r="J25" s="46" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="47" t="s">
+      <c r="N25" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
       <c r="R25" s="46" t="s">
         <v>30</v>
       </c>
       <c r="S25" s="46"/>
       <c r="T25" s="46"/>
       <c r="U25" s="46"/>
-      <c r="V25" s="55" t="s">
+      <c r="V25" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="49" t="s">
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
@@ -4773,14 +4773,14 @@
       <c r="AC26" s="29"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="31"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -4817,24 +4817,24 @@
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
-      <c r="L32" s="47" t="s">
+      <c r="L32" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
       <c r="P32" s="46" t="s">
         <v>29</v>
       </c>
       <c r="Q32" s="46"/>
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
-      <c r="T32" s="60" t="s">
+      <c r="T32" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="U32" s="60"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
     </row>
     <row r="33" spans="6:33" x14ac:dyDescent="0.2">
       <c r="G33" s="35" t="s">
@@ -4895,24 +4895,24 @@
       <c r="K37" s="46"/>
       <c r="L37" s="46"/>
       <c r="M37" s="46"/>
-      <c r="N37" s="47" t="s">
+      <c r="N37" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
       <c r="R37" s="46" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="46"/>
       <c r="T37" s="46"/>
       <c r="U37" s="46"/>
-      <c r="V37" s="60" t="s">
+      <c r="V37" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
     </row>
     <row r="38" spans="6:33" x14ac:dyDescent="0.2">
       <c r="I38" s="35" t="s">
@@ -4973,24 +4973,24 @@
       <c r="O42" s="46"/>
       <c r="P42" s="46"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="47" t="s">
+      <c r="R42" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
       <c r="V42" s="46" t="s">
         <v>29</v>
       </c>
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="46"/>
-      <c r="Z42" s="60" t="s">
+      <c r="Z42" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="60"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
     </row>
     <row r="43" spans="6:33" x14ac:dyDescent="0.2">
       <c r="M43" s="35" t="s">
@@ -5051,24 +5051,24 @@
       <c r="S47" s="46"/>
       <c r="T47" s="46"/>
       <c r="U47" s="46"/>
-      <c r="V47" s="47" t="s">
+      <c r="V47" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="W47" s="47"/>
-      <c r="X47" s="47"/>
-      <c r="Y47" s="47"/>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="48"/>
       <c r="Z47" s="46" t="s">
         <v>29</v>
       </c>
       <c r="AA47" s="46"/>
       <c r="AB47" s="46"/>
       <c r="AC47" s="46"/>
-      <c r="AD47" s="60" t="s">
+      <c r="AD47" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AE47" s="60"/>
-      <c r="AF47" s="60"/>
-      <c r="AG47" s="60"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
     </row>
     <row r="48" spans="6:33" x14ac:dyDescent="0.2">
       <c r="Q48" s="35" t="s">
@@ -5129,24 +5129,24 @@
       <c r="I52" s="46"/>
       <c r="J52" s="46"/>
       <c r="K52" s="46"/>
-      <c r="L52" s="47" t="s">
+      <c r="L52" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
       <c r="P52" s="46" t="s">
         <v>29</v>
       </c>
       <c r="Q52" s="46"/>
       <c r="R52" s="46"/>
       <c r="S52" s="46"/>
-      <c r="T52" s="60" t="s">
+      <c r="T52" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="U52" s="60"/>
-      <c r="V52" s="60"/>
-      <c r="W52" s="60"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
     </row>
     <row r="53" spans="4:33" x14ac:dyDescent="0.2">
       <c r="G53" s="35" t="s">
@@ -5211,24 +5211,24 @@
       <c r="K57" s="46"/>
       <c r="L57" s="46"/>
       <c r="M57" s="46"/>
-      <c r="N57" s="47" t="s">
+      <c r="N57" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="47"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
       <c r="R57" s="46" t="s">
         <v>29</v>
       </c>
       <c r="S57" s="46"/>
       <c r="T57" s="46"/>
       <c r="U57" s="46"/>
-      <c r="V57" s="60" t="s">
+      <c r="V57" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="W57" s="60"/>
-      <c r="X57" s="60"/>
-      <c r="Y57" s="60"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
+      <c r="Y57" s="47"/>
     </row>
     <row r="58" spans="4:33" x14ac:dyDescent="0.2">
       <c r="I58" s="35" t="s">
@@ -5293,24 +5293,24 @@
       <c r="S62" s="46"/>
       <c r="T62" s="46"/>
       <c r="U62" s="46"/>
-      <c r="V62" s="47" t="s">
+      <c r="V62" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="W62" s="47"/>
-      <c r="X62" s="47"/>
-      <c r="Y62" s="47"/>
+      <c r="W62" s="48"/>
+      <c r="X62" s="48"/>
+      <c r="Y62" s="48"/>
       <c r="Z62" s="46" t="s">
         <v>29</v>
       </c>
       <c r="AA62" s="46"/>
       <c r="AB62" s="46"/>
       <c r="AC62" s="46"/>
-      <c r="AD62" s="60" t="s">
+      <c r="AD62" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AE62" s="60"/>
-      <c r="AF62" s="60"/>
-      <c r="AG62" s="60"/>
+      <c r="AE62" s="47"/>
+      <c r="AF62" s="47"/>
+      <c r="AG62" s="47"/>
     </row>
     <row r="63" spans="4:33" x14ac:dyDescent="0.2">
       <c r="Q63" s="35" t="s">
@@ -5365,43 +5365,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="57">
-    <mergeCell ref="Z62:AC62"/>
-    <mergeCell ref="AD62:AG62"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="Z42:AC42"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="R37:U37"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="H17:S17"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:S15"/>
     <mergeCell ref="Z3:AC3"/>
@@ -5417,11 +5385,43 @@
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="H13:S13"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="H17:S17"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="R37:U37"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="Z42:AC42"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="Z62:AC62"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:Y62"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0263888888888888" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/schedules/HIB.xlsx
+++ b/schedules/HIB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="136">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -423,6 +423,15 @@
   </si>
   <si>
     <t>Did not receive first or next dose before 15 months, final dose due immediately.</t>
+  </si>
+  <si>
+    <t>7 months -4 d</t>
+  </si>
+  <si>
+    <t>12 months -4 d</t>
+  </si>
+  <si>
+    <t>15 months -4 d</t>
   </si>
 </sst>
 </file>
@@ -914,9 +923,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -935,21 +941,24 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1463,13 +1472,13 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -1512,13 +1521,13 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="40"/>
       <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1532,9 +1541,9 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="45"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1546,13 +1555,13 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="40"/>
       <c r="F7" s="10" t="s">
         <v>1</v>
       </c>
@@ -1564,9 +1573,9 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="45"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="F8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1665,11 +1674,11 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="F14" s="10" t="s">
         <v>24</v>
       </c>
@@ -1709,7 +1718,7 @@
         <v>111</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="D16" s="9">
         <v>-7</v>
@@ -1720,7 +1729,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="D17" s="9">
         <v>-12</v>
@@ -1735,7 +1744,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="D18" s="9">
         <v>-15</v>
@@ -1935,12 +1944,12 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="18"/>
@@ -2025,11 +2034,11 @@
       <c r="E71" s="9"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
@@ -2128,12 +2137,12 @@
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="18"/>
@@ -2220,11 +2229,11 @@
       <c r="E91" s="9"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
@@ -2307,12 +2316,12 @@
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="39" t="s">
+      <c r="B102" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="18"/>
@@ -2399,11 +2408,11 @@
       <c r="E110" s="9"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="39" t="s">
+      <c r="B111" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
@@ -2502,12 +2511,12 @@
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="39" t="s">
+      <c r="B122" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="18"/>
@@ -2594,11 +2603,11 @@
       <c r="E130" s="9"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="45"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
@@ -2660,12 +2669,12 @@
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="39" t="s">
+      <c r="B139" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="18"/>
@@ -2752,11 +2761,11 @@
       <c r="E147" s="9"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="39" t="s">
+      <c r="B148" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="6" t="s">
@@ -2854,12 +2863,12 @@
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="39" t="s">
+      <c r="B159" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="45"/>
+      <c r="E159" s="45"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="18"/>
@@ -2944,11 +2953,11 @@
       <c r="E167" s="9"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="39" t="s">
+      <c r="B168" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C168" s="39"/>
-      <c r="D168" s="39"/>
+      <c r="C168" s="45"/>
+      <c r="D168" s="45"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="6" t="s">
@@ -3035,12 +3044,12 @@
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B178" s="39" t="s">
+      <c r="B178" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C178" s="39"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="39"/>
+      <c r="C178" s="45"/>
+      <c r="D178" s="45"/>
+      <c r="E178" s="45"/>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="18"/>
@@ -3127,11 +3136,11 @@
       <c r="E186" s="9"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B187" s="39" t="s">
+      <c r="B187" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C187" s="39"/>
-      <c r="D187" s="39"/>
+      <c r="C187" s="45"/>
+      <c r="D187" s="45"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" s="6" t="s">
@@ -3221,12 +3230,12 @@
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B197" s="39" t="s">
+      <c r="B197" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C197" s="39"/>
-      <c r="D197" s="39"/>
-      <c r="E197" s="39"/>
+      <c r="C197" s="45"/>
+      <c r="D197" s="45"/>
+      <c r="E197" s="45"/>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" s="18"/>
@@ -3311,11 +3320,11 @@
       <c r="E205" s="9"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B206" s="39" t="s">
+      <c r="B206" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C206" s="39"/>
-      <c r="D206" s="39"/>
+      <c r="C206" s="45"/>
+      <c r="D206" s="45"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" s="6" t="s">
@@ -3415,12 +3424,12 @@
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B217" s="39" t="s">
+      <c r="B217" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C217" s="39"/>
-      <c r="D217" s="39"/>
-      <c r="E217" s="39"/>
+      <c r="C217" s="45"/>
+      <c r="D217" s="45"/>
+      <c r="E217" s="45"/>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218" s="18"/>
@@ -3505,11 +3514,11 @@
       <c r="E225" s="9"/>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B226" s="39" t="s">
+      <c r="B226" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C226" s="39"/>
-      <c r="D226" s="39"/>
+      <c r="C226" s="45"/>
+      <c r="D226" s="45"/>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B227" s="6" t="s">
@@ -3555,14 +3564,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="24">
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B217:E217"/>
     <mergeCell ref="B226:D226"/>
     <mergeCell ref="F2:J2"/>
@@ -3579,6 +3580,14 @@
     <mergeCell ref="B131:D131"/>
     <mergeCell ref="B148:D148"/>
     <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3603,8 +3612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A129"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection sqref="A1:A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3663,19 +3672,19 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="str">
         <f>"  &lt;transition name="&amp;CHAR(34)&amp;Schedules!B16&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!C16&amp;CHAR(34)&amp;" vaccineId="&amp;CHAR(34)&amp;Schedules!D16&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;transition name="7 Months Old" age="7 months" vaccineId="-7"/&gt;</v>
+        <v xml:space="preserve">  &lt;transition name="7 Months Old" age="7 months -4 d" vaccineId="-7"/&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="str">
         <f>"  &lt;transition name="&amp;CHAR(34)&amp;Schedules!B17&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!C17&amp;CHAR(34)&amp;" vaccineId="&amp;CHAR(34)&amp;Schedules!D17&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;transition name="12 Months Old" age="12 months" vaccineId="-12"/&gt;</v>
+        <v xml:space="preserve">  &lt;transition name="12 Months Old" age="12 months -4 d" vaccineId="-12"/&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="str">
         <f>"  &lt;transition name="&amp;CHAR(34)&amp;Schedules!B18&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!C18&amp;CHAR(34)&amp;" vaccineId="&amp;CHAR(34)&amp;Schedules!D18&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;transition name="15 Months Old" age="15 months" vaccineId="-15"/&gt;</v>
+        <v xml:space="preserve">  &lt;transition name="15 Months Old" age="15 months -4 d" vaccineId="-15"/&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -4424,42 +4433,42 @@
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="46" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
       <c r="R3" s="46" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="46"/>
       <c r="T3" s="46"/>
       <c r="U3" s="46"/>
-      <c r="V3" s="49" t="s">
+      <c r="V3" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="50" t="s">
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
@@ -4492,62 +4501,62 @@
       <c r="AC4" s="29"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="55" t="s">
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="56" t="s">
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="55" t="s">
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="57" t="s">
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H8" s="30"/>
@@ -4572,48 +4581,48 @@
       <c r="AA8" s="29"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="59" t="s">
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="60" t="s">
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H12" s="30"/>
@@ -4630,38 +4639,38 @@
       <c r="S12" s="29"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53" t="s">
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H16" s="30"/>
@@ -4678,20 +4687,20 @@
       <c r="S16" s="29"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
     </row>
     <row r="23" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
@@ -4705,42 +4714,42 @@
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="46" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="48" t="s">
+      <c r="N25" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
       <c r="R25" s="46" t="s">
         <v>30</v>
       </c>
       <c r="S25" s="46"/>
       <c r="T25" s="46"/>
       <c r="U25" s="46"/>
-      <c r="V25" s="49" t="s">
+      <c r="V25" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="50" t="s">
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
@@ -4773,14 +4782,14 @@
       <c r="AC26" s="29"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="31"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -4817,24 +4826,24 @@
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
-      <c r="L32" s="48" t="s">
+      <c r="L32" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
       <c r="P32" s="46" t="s">
         <v>29</v>
       </c>
       <c r="Q32" s="46"/>
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
-      <c r="T32" s="47" t="s">
+      <c r="T32" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
     </row>
     <row r="33" spans="6:33" x14ac:dyDescent="0.2">
       <c r="G33" s="35" t="s">
@@ -4895,24 +4904,24 @@
       <c r="K37" s="46"/>
       <c r="L37" s="46"/>
       <c r="M37" s="46"/>
-      <c r="N37" s="48" t="s">
+      <c r="N37" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
       <c r="R37" s="46" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="46"/>
       <c r="T37" s="46"/>
       <c r="U37" s="46"/>
-      <c r="V37" s="47" t="s">
+      <c r="V37" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="W37" s="47"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="47"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
     </row>
     <row r="38" spans="6:33" x14ac:dyDescent="0.2">
       <c r="I38" s="35" t="s">
@@ -4973,24 +4982,24 @@
       <c r="O42" s="46"/>
       <c r="P42" s="46"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="48" t="s">
+      <c r="R42" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
       <c r="V42" s="46" t="s">
         <v>29</v>
       </c>
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="46"/>
-      <c r="Z42" s="47" t="s">
+      <c r="Z42" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
     </row>
     <row r="43" spans="6:33" x14ac:dyDescent="0.2">
       <c r="M43" s="35" t="s">
@@ -5051,24 +5060,24 @@
       <c r="S47" s="46"/>
       <c r="T47" s="46"/>
       <c r="U47" s="46"/>
-      <c r="V47" s="48" t="s">
+      <c r="V47" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W47" s="48"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="48"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
       <c r="Z47" s="46" t="s">
         <v>29</v>
       </c>
       <c r="AA47" s="46"/>
       <c r="AB47" s="46"/>
       <c r="AC47" s="46"/>
-      <c r="AD47" s="47" t="s">
+      <c r="AD47" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AE47" s="47"/>
-      <c r="AF47" s="47"/>
-      <c r="AG47" s="47"/>
+      <c r="AE47" s="60"/>
+      <c r="AF47" s="60"/>
+      <c r="AG47" s="60"/>
     </row>
     <row r="48" spans="6:33" x14ac:dyDescent="0.2">
       <c r="Q48" s="35" t="s">
@@ -5129,24 +5138,24 @@
       <c r="I52" s="46"/>
       <c r="J52" s="46"/>
       <c r="K52" s="46"/>
-      <c r="L52" s="48" t="s">
+      <c r="L52" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
       <c r="P52" s="46" t="s">
         <v>29</v>
       </c>
       <c r="Q52" s="46"/>
       <c r="R52" s="46"/>
       <c r="S52" s="46"/>
-      <c r="T52" s="47" t="s">
+      <c r="T52" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="60"/>
     </row>
     <row r="53" spans="4:33" x14ac:dyDescent="0.2">
       <c r="G53" s="35" t="s">
@@ -5211,24 +5220,24 @@
       <c r="K57" s="46"/>
       <c r="L57" s="46"/>
       <c r="M57" s="46"/>
-      <c r="N57" s="48" t="s">
+      <c r="N57" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
       <c r="R57" s="46" t="s">
         <v>29</v>
       </c>
       <c r="S57" s="46"/>
       <c r="T57" s="46"/>
       <c r="U57" s="46"/>
-      <c r="V57" s="47" t="s">
+      <c r="V57" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="W57" s="47"/>
-      <c r="X57" s="47"/>
-      <c r="Y57" s="47"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="60"/>
     </row>
     <row r="58" spans="4:33" x14ac:dyDescent="0.2">
       <c r="I58" s="35" t="s">
@@ -5293,24 +5302,24 @@
       <c r="S62" s="46"/>
       <c r="T62" s="46"/>
       <c r="U62" s="46"/>
-      <c r="V62" s="48" t="s">
+      <c r="V62" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W62" s="48"/>
-      <c r="X62" s="48"/>
-      <c r="Y62" s="48"/>
+      <c r="W62" s="47"/>
+      <c r="X62" s="47"/>
+      <c r="Y62" s="47"/>
       <c r="Z62" s="46" t="s">
         <v>29</v>
       </c>
       <c r="AA62" s="46"/>
       <c r="AB62" s="46"/>
       <c r="AC62" s="46"/>
-      <c r="AD62" s="47" t="s">
+      <c r="AD62" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AE62" s="47"/>
-      <c r="AF62" s="47"/>
-      <c r="AG62" s="47"/>
+      <c r="AE62" s="60"/>
+      <c r="AF62" s="60"/>
+      <c r="AG62" s="60"/>
     </row>
     <row r="63" spans="4:33" x14ac:dyDescent="0.2">
       <c r="Q63" s="35" t="s">
@@ -5365,11 +5374,43 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="57">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="Z62:AC62"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="Z42:AC42"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="R37:U37"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="H17:S17"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:U25"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:S15"/>
     <mergeCell ref="Z3:AC3"/>
@@ -5385,43 +5426,11 @@
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="H13:S13"/>
-    <mergeCell ref="H17:S17"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="R37:U37"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="Z42:AC42"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="Z62:AC62"/>
-    <mergeCell ref="AD62:AG62"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0263888888888888" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/schedules/HIB.xlsx
+++ b/schedules/HIB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="136">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -401,9 +401,6 @@
     <t>128, 1320, 1330, 1340, 136, 1350, 115, 121, 142, 213</t>
   </si>
   <si>
-    <t>Received 2nd dose at 15 months of age or older, no more doses needed.</t>
-  </si>
-  <si>
     <t>CB</t>
   </si>
   <si>
@@ -432,6 +429,9 @@
   </si>
   <si>
     <t>15 months -4 d</t>
+  </si>
+  <si>
+    <t>Received 2nd dose at 15 months of age or older, one more dose needed.</t>
   </si>
 </sst>
 </file>
@@ -923,6 +923,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -941,24 +944,21 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,13 +1472,13 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -1521,13 +1521,13 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1541,9 +1541,9 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
       <c r="F6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1555,13 +1555,13 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="41"/>
       <c r="F7" s="10" t="s">
         <v>1</v>
       </c>
@@ -1573,9 +1573,9 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
       <c r="F8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1674,11 +1674,11 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="F14" s="10" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>111</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="9">
         <v>-7</v>
@@ -1729,7 +1729,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="9">
         <v>-12</v>
@@ -1744,7 +1744,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="9">
         <v>-15</v>
@@ -1944,12 +1944,12 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="18"/>
@@ -2034,11 +2034,11 @@
       <c r="E71" s="9"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
@@ -2137,12 +2137,12 @@
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="18"/>
@@ -2229,11 +2229,11 @@
       <c r="E91" s="9"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
@@ -2316,12 +2316,12 @@
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="18"/>
@@ -2408,11 +2408,11 @@
       <c r="E110" s="9"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="45" t="s">
+      <c r="B111" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
@@ -2433,7 +2433,7 @@
         <v>110</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="21" t="s">
@@ -2511,12 +2511,12 @@
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="45" t="s">
+      <c r="B122" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
-      <c r="E122" s="45"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="18"/>
@@ -2603,11 +2603,11 @@
       <c r="E130" s="9"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="45" t="s">
+      <c r="B131" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C131" s="45"/>
-      <c r="D131" s="45"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
@@ -2669,12 +2669,12 @@
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="45" t="s">
+      <c r="B139" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C139" s="45"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="45"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="18"/>
@@ -2761,11 +2761,11 @@
       <c r="E147" s="9"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="45" t="s">
+      <c r="B148" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C148" s="45"/>
-      <c r="D148" s="45"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="39"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="6" t="s">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
@@ -2851,7 +2851,7 @@
         <v>27</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
@@ -2863,12 +2863,12 @@
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="45" t="s">
+      <c r="B159" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C159" s="45"/>
-      <c r="D159" s="45"/>
-      <c r="E159" s="45"/>
+      <c r="C159" s="39"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="39"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="18"/>
@@ -2953,11 +2953,11 @@
       <c r="E167" s="9"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="45" t="s">
+      <c r="B168" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C168" s="45"/>
-      <c r="D168" s="45"/>
+      <c r="C168" s="39"/>
+      <c r="D168" s="39"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="6" t="s">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
@@ -3044,12 +3044,12 @@
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B178" s="45" t="s">
+      <c r="B178" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C178" s="45"/>
-      <c r="D178" s="45"/>
-      <c r="E178" s="45"/>
+      <c r="C178" s="39"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="39"/>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="18"/>
@@ -3136,11 +3136,11 @@
       <c r="E186" s="9"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B187" s="45" t="s">
+      <c r="B187" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C187" s="45"/>
-      <c r="D187" s="45"/>
+      <c r="C187" s="39"/>
+      <c r="D187" s="39"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" s="6" t="s">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
@@ -3173,11 +3173,11 @@
         <v>13</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="21" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
@@ -3230,12 +3230,12 @@
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B197" s="45" t="s">
+      <c r="B197" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C197" s="45"/>
-      <c r="D197" s="45"/>
-      <c r="E197" s="45"/>
+      <c r="C197" s="39"/>
+      <c r="D197" s="39"/>
+      <c r="E197" s="39"/>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" s="18"/>
@@ -3307,9 +3307,11 @@
       </c>
       <c r="C204" s="20"/>
       <c r="D204" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E204" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B205" s="19" t="s">
@@ -3320,11 +3322,11 @@
       <c r="E205" s="9"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B206" s="45" t="s">
+      <c r="B206" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C206" s="45"/>
-      <c r="D206" s="45"/>
+      <c r="C206" s="39"/>
+      <c r="D206" s="39"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" s="6" t="s">
@@ -3345,11 +3347,11 @@
         <v>117</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D208" s="9"/>
       <c r="E208" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
@@ -3357,7 +3359,7 @@
         <v>13</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="21"/>
@@ -3412,24 +3414,24 @@
         <v>27</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B216" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C216" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B217" s="45" t="s">
+      <c r="B217" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C217" s="45"/>
-      <c r="D217" s="45"/>
-      <c r="E217" s="45"/>
+      <c r="C217" s="39"/>
+      <c r="D217" s="39"/>
+      <c r="E217" s="39"/>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218" s="18"/>
@@ -3501,9 +3503,11 @@
       </c>
       <c r="C224" s="20"/>
       <c r="D224" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E224" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="E224" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B225" s="19" t="s">
@@ -3514,11 +3518,11 @@
       <c r="E225" s="9"/>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B226" s="45" t="s">
+      <c r="B226" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C226" s="45"/>
-      <c r="D226" s="45"/>
+      <c r="C226" s="39"/>
+      <c r="D226" s="39"/>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B227" s="6" t="s">
@@ -3564,6 +3568,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="24">
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B217:E217"/>
     <mergeCell ref="B226:D226"/>
     <mergeCell ref="F2:J2"/>
@@ -3580,14 +3592,6 @@
     <mergeCell ref="B131:D131"/>
     <mergeCell ref="B148:D148"/>
     <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3612,7 +3616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A129"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection sqref="A1:A129"/>
     </sheetView>
   </sheetViews>
@@ -4224,7 +4228,7 @@
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B190&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C190&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D190&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E190&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="Series Dose" schedule="P4" age="" reason="Received 2nd dose at 15 months of age or older, no more doses needed."/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="Series Dose" schedule="CB" age="" reason="Received 2nd dose at 15 months of age or older, one more dose needed."/&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
@@ -4284,7 +4288,7 @@
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D204&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E204&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="0 days" grace=""/&gt;</v>
+        <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
@@ -4368,7 +4372,7 @@
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D224&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E224&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="0 days" grace=""/&gt;</v>
+        <v xml:space="preserve">    &lt;after-invalid interval="8 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
@@ -4433,42 +4437,42 @@
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="46" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
       <c r="R3" s="46" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="46"/>
       <c r="T3" s="46"/>
       <c r="U3" s="46"/>
-      <c r="V3" s="55" t="s">
+      <c r="V3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="49" t="s">
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
@@ -4501,62 +4505,62 @@
       <c r="AC4" s="29"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52" t="s">
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="53" t="s">
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="52" t="s">
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="54" t="s">
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H8" s="30"/>
@@ -4581,48 +4585,48 @@
       <c r="AA8" s="29"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57" t="s">
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58" t="s">
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H12" s="30"/>
@@ -4639,38 +4643,38 @@
       <c r="S12" s="29"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48" t="s">
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H16" s="30"/>
@@ -4687,20 +4691,20 @@
       <c r="S16" s="29"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
     </row>
     <row r="23" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
@@ -4714,42 +4718,42 @@
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
       <c r="J25" s="46" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="47" t="s">
+      <c r="N25" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
       <c r="R25" s="46" t="s">
         <v>30</v>
       </c>
       <c r="S25" s="46"/>
       <c r="T25" s="46"/>
       <c r="U25" s="46"/>
-      <c r="V25" s="55" t="s">
+      <c r="V25" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="49" t="s">
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
@@ -4782,14 +4786,14 @@
       <c r="AC26" s="29"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="31"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -4826,24 +4830,24 @@
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
-      <c r="L32" s="47" t="s">
+      <c r="L32" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
       <c r="P32" s="46" t="s">
         <v>29</v>
       </c>
       <c r="Q32" s="46"/>
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
-      <c r="T32" s="60" t="s">
+      <c r="T32" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="U32" s="60"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
     </row>
     <row r="33" spans="6:33" x14ac:dyDescent="0.2">
       <c r="G33" s="35" t="s">
@@ -4904,24 +4908,24 @@
       <c r="K37" s="46"/>
       <c r="L37" s="46"/>
       <c r="M37" s="46"/>
-      <c r="N37" s="47" t="s">
+      <c r="N37" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
       <c r="R37" s="46" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="46"/>
       <c r="T37" s="46"/>
       <c r="U37" s="46"/>
-      <c r="V37" s="60" t="s">
+      <c r="V37" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
     </row>
     <row r="38" spans="6:33" x14ac:dyDescent="0.2">
       <c r="I38" s="35" t="s">
@@ -4982,24 +4986,24 @@
       <c r="O42" s="46"/>
       <c r="P42" s="46"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="47" t="s">
+      <c r="R42" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
       <c r="V42" s="46" t="s">
         <v>29</v>
       </c>
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="46"/>
-      <c r="Z42" s="60" t="s">
+      <c r="Z42" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="60"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
     </row>
     <row r="43" spans="6:33" x14ac:dyDescent="0.2">
       <c r="M43" s="35" t="s">
@@ -5060,24 +5064,24 @@
       <c r="S47" s="46"/>
       <c r="T47" s="46"/>
       <c r="U47" s="46"/>
-      <c r="V47" s="47" t="s">
+      <c r="V47" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="W47" s="47"/>
-      <c r="X47" s="47"/>
-      <c r="Y47" s="47"/>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="48"/>
       <c r="Z47" s="46" t="s">
         <v>29</v>
       </c>
       <c r="AA47" s="46"/>
       <c r="AB47" s="46"/>
       <c r="AC47" s="46"/>
-      <c r="AD47" s="60" t="s">
+      <c r="AD47" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AE47" s="60"/>
-      <c r="AF47" s="60"/>
-      <c r="AG47" s="60"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
     </row>
     <row r="48" spans="6:33" x14ac:dyDescent="0.2">
       <c r="Q48" s="35" t="s">
@@ -5138,24 +5142,24 @@
       <c r="I52" s="46"/>
       <c r="J52" s="46"/>
       <c r="K52" s="46"/>
-      <c r="L52" s="47" t="s">
+      <c r="L52" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
       <c r="P52" s="46" t="s">
         <v>29</v>
       </c>
       <c r="Q52" s="46"/>
       <c r="R52" s="46"/>
       <c r="S52" s="46"/>
-      <c r="T52" s="60" t="s">
+      <c r="T52" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="U52" s="60"/>
-      <c r="V52" s="60"/>
-      <c r="W52" s="60"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
     </row>
     <row r="53" spans="4:33" x14ac:dyDescent="0.2">
       <c r="G53" s="35" t="s">
@@ -5220,24 +5224,24 @@
       <c r="K57" s="46"/>
       <c r="L57" s="46"/>
       <c r="M57" s="46"/>
-      <c r="N57" s="47" t="s">
+      <c r="N57" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="47"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
       <c r="R57" s="46" t="s">
         <v>29</v>
       </c>
       <c r="S57" s="46"/>
       <c r="T57" s="46"/>
       <c r="U57" s="46"/>
-      <c r="V57" s="60" t="s">
+      <c r="V57" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="W57" s="60"/>
-      <c r="X57" s="60"/>
-      <c r="Y57" s="60"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
+      <c r="Y57" s="47"/>
     </row>
     <row r="58" spans="4:33" x14ac:dyDescent="0.2">
       <c r="I58" s="35" t="s">
@@ -5302,24 +5306,24 @@
       <c r="S62" s="46"/>
       <c r="T62" s="46"/>
       <c r="U62" s="46"/>
-      <c r="V62" s="47" t="s">
+      <c r="V62" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="W62" s="47"/>
-      <c r="X62" s="47"/>
-      <c r="Y62" s="47"/>
+      <c r="W62" s="48"/>
+      <c r="X62" s="48"/>
+      <c r="Y62" s="48"/>
       <c r="Z62" s="46" t="s">
         <v>29</v>
       </c>
       <c r="AA62" s="46"/>
       <c r="AB62" s="46"/>
       <c r="AC62" s="46"/>
-      <c r="AD62" s="60" t="s">
+      <c r="AD62" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AE62" s="60"/>
-      <c r="AF62" s="60"/>
-      <c r="AG62" s="60"/>
+      <c r="AE62" s="47"/>
+      <c r="AF62" s="47"/>
+      <c r="AG62" s="47"/>
     </row>
     <row r="63" spans="4:33" x14ac:dyDescent="0.2">
       <c r="Q63" s="35" t="s">
@@ -5374,43 +5378,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="57">
-    <mergeCell ref="Z62:AC62"/>
-    <mergeCell ref="AD62:AG62"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="Z42:AC42"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="R37:U37"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="H17:S17"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:S15"/>
     <mergeCell ref="Z3:AC3"/>
@@ -5426,11 +5398,43 @@
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="H13:S13"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="H17:S17"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="R37:U37"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="Z42:AC42"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="Z62:AC62"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:Y62"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0263888888888888" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/schedules/HIB.xlsx
+++ b/schedules/HIB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="137">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>Received 2nd dose at 15 months of age or older, one more dose needed.</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -923,9 +926,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -944,21 +944,24 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,13 +1475,13 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -1521,13 +1524,13 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="40"/>
       <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1541,9 +1544,9 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="45"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1555,13 +1558,13 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="40"/>
       <c r="F7" s="10" t="s">
         <v>1</v>
       </c>
@@ -1573,9 +1576,9 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="45"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="F8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1674,11 +1677,11 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="F14" s="10" t="s">
         <v>24</v>
       </c>
@@ -1944,12 +1947,12 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="18"/>
@@ -2034,11 +2037,11 @@
       <c r="E71" s="9"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
@@ -2137,12 +2140,12 @@
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="18"/>
@@ -2229,11 +2232,11 @@
       <c r="E91" s="9"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
@@ -2316,12 +2319,12 @@
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="39" t="s">
+      <c r="B102" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="18"/>
@@ -2408,11 +2411,11 @@
       <c r="E110" s="9"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="39" t="s">
+      <c r="B111" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
@@ -2511,12 +2514,12 @@
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="39" t="s">
+      <c r="B122" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="18"/>
@@ -2603,11 +2606,11 @@
       <c r="E130" s="9"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="45"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
@@ -2669,12 +2672,12 @@
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="39" t="s">
+      <c r="B139" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="18"/>
@@ -2761,11 +2764,11 @@
       <c r="E147" s="9"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="39" t="s">
+      <c r="B148" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="6" t="s">
@@ -2863,12 +2866,12 @@
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="39" t="s">
+      <c r="B159" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="45"/>
+      <c r="E159" s="45"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="18"/>
@@ -2953,11 +2956,11 @@
       <c r="E167" s="9"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="39" t="s">
+      <c r="B168" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C168" s="39"/>
-      <c r="D168" s="39"/>
+      <c r="C168" s="45"/>
+      <c r="D168" s="45"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="6" t="s">
@@ -3044,12 +3047,12 @@
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B178" s="39" t="s">
+      <c r="B178" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C178" s="39"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="39"/>
+      <c r="C178" s="45"/>
+      <c r="D178" s="45"/>
+      <c r="E178" s="45"/>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="18"/>
@@ -3136,11 +3139,11 @@
       <c r="E186" s="9"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B187" s="39" t="s">
+      <c r="B187" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C187" s="39"/>
-      <c r="D187" s="39"/>
+      <c r="C187" s="45"/>
+      <c r="D187" s="45"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" s="6" t="s">
@@ -3225,17 +3228,17 @@
       <c r="B196" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C196" s="17">
-        <v>1</v>
+      <c r="C196" s="17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B197" s="39" t="s">
+      <c r="B197" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C197" s="39"/>
-      <c r="D197" s="39"/>
-      <c r="E197" s="39"/>
+      <c r="C197" s="45"/>
+      <c r="D197" s="45"/>
+      <c r="E197" s="45"/>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" s="18"/>
@@ -3322,11 +3325,11 @@
       <c r="E205" s="9"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B206" s="39" t="s">
+      <c r="B206" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C206" s="39"/>
-      <c r="D206" s="39"/>
+      <c r="C206" s="45"/>
+      <c r="D206" s="45"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" s="6" t="s">
@@ -3426,12 +3429,12 @@
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B217" s="39" t="s">
+      <c r="B217" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C217" s="39"/>
-      <c r="D217" s="39"/>
-      <c r="E217" s="39"/>
+      <c r="C217" s="45"/>
+      <c r="D217" s="45"/>
+      <c r="E217" s="45"/>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218" s="18"/>
@@ -3518,11 +3521,11 @@
       <c r="E225" s="9"/>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B226" s="39" t="s">
+      <c r="B226" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C226" s="39"/>
-      <c r="D226" s="39"/>
+      <c r="C226" s="45"/>
+      <c r="D226" s="45"/>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B227" s="6" t="s">
@@ -3568,14 +3571,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="24">
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B217:E217"/>
     <mergeCell ref="B226:D226"/>
     <mergeCell ref="F2:J2"/>
@@ -3592,6 +3587,14 @@
     <mergeCell ref="B131:D131"/>
     <mergeCell ref="B148:D148"/>
     <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3617,7 +3620,7 @@
   <dimension ref="A1:A129"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection sqref="A1:A129"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4246,7 +4249,7 @@
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B196&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C196&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D196&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E195&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="D1" dose="1" indication="" label="12-14 month catch-up"&gt;</v>
+        <v xml:space="preserve">  &lt;schedule scheduleName="D1" dose="*" indication="" label="12-14 month catch-up"&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
@@ -4437,42 +4440,42 @@
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="46" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
       <c r="R3" s="46" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="46"/>
       <c r="T3" s="46"/>
       <c r="U3" s="46"/>
-      <c r="V3" s="49" t="s">
+      <c r="V3" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="50" t="s">
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
@@ -4505,62 +4508,62 @@
       <c r="AC4" s="29"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="55" t="s">
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="56" t="s">
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="55" t="s">
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="57" t="s">
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H8" s="30"/>
@@ -4585,48 +4588,48 @@
       <c r="AA8" s="29"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="59" t="s">
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="60" t="s">
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H12" s="30"/>
@@ -4643,38 +4646,38 @@
       <c r="S12" s="29"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53" t="s">
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H16" s="30"/>
@@ -4691,20 +4694,20 @@
       <c r="S16" s="29"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
     </row>
     <row r="23" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
@@ -4718,42 +4721,42 @@
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="46" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="48" t="s">
+      <c r="N25" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
       <c r="R25" s="46" t="s">
         <v>30</v>
       </c>
       <c r="S25" s="46"/>
       <c r="T25" s="46"/>
       <c r="U25" s="46"/>
-      <c r="V25" s="49" t="s">
+      <c r="V25" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="50" t="s">
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
@@ -4786,14 +4789,14 @@
       <c r="AC26" s="29"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="31"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -4830,24 +4833,24 @@
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
-      <c r="L32" s="48" t="s">
+      <c r="L32" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
       <c r="P32" s="46" t="s">
         <v>29</v>
       </c>
       <c r="Q32" s="46"/>
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
-      <c r="T32" s="47" t="s">
+      <c r="T32" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
     </row>
     <row r="33" spans="6:33" x14ac:dyDescent="0.2">
       <c r="G33" s="35" t="s">
@@ -4908,24 +4911,24 @@
       <c r="K37" s="46"/>
       <c r="L37" s="46"/>
       <c r="M37" s="46"/>
-      <c r="N37" s="48" t="s">
+      <c r="N37" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
       <c r="R37" s="46" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="46"/>
       <c r="T37" s="46"/>
       <c r="U37" s="46"/>
-      <c r="V37" s="47" t="s">
+      <c r="V37" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="W37" s="47"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="47"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
     </row>
     <row r="38" spans="6:33" x14ac:dyDescent="0.2">
       <c r="I38" s="35" t="s">
@@ -4986,24 +4989,24 @@
       <c r="O42" s="46"/>
       <c r="P42" s="46"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="48" t="s">
+      <c r="R42" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
       <c r="V42" s="46" t="s">
         <v>29</v>
       </c>
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="46"/>
-      <c r="Z42" s="47" t="s">
+      <c r="Z42" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
     </row>
     <row r="43" spans="6:33" x14ac:dyDescent="0.2">
       <c r="M43" s="35" t="s">
@@ -5064,24 +5067,24 @@
       <c r="S47" s="46"/>
       <c r="T47" s="46"/>
       <c r="U47" s="46"/>
-      <c r="V47" s="48" t="s">
+      <c r="V47" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W47" s="48"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="48"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
       <c r="Z47" s="46" t="s">
         <v>29</v>
       </c>
       <c r="AA47" s="46"/>
       <c r="AB47" s="46"/>
       <c r="AC47" s="46"/>
-      <c r="AD47" s="47" t="s">
+      <c r="AD47" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AE47" s="47"/>
-      <c r="AF47" s="47"/>
-      <c r="AG47" s="47"/>
+      <c r="AE47" s="60"/>
+      <c r="AF47" s="60"/>
+      <c r="AG47" s="60"/>
     </row>
     <row r="48" spans="6:33" x14ac:dyDescent="0.2">
       <c r="Q48" s="35" t="s">
@@ -5142,24 +5145,24 @@
       <c r="I52" s="46"/>
       <c r="J52" s="46"/>
       <c r="K52" s="46"/>
-      <c r="L52" s="48" t="s">
+      <c r="L52" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
       <c r="P52" s="46" t="s">
         <v>29</v>
       </c>
       <c r="Q52" s="46"/>
       <c r="R52" s="46"/>
       <c r="S52" s="46"/>
-      <c r="T52" s="47" t="s">
+      <c r="T52" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="60"/>
     </row>
     <row r="53" spans="4:33" x14ac:dyDescent="0.2">
       <c r="G53" s="35" t="s">
@@ -5224,24 +5227,24 @@
       <c r="K57" s="46"/>
       <c r="L57" s="46"/>
       <c r="M57" s="46"/>
-      <c r="N57" s="48" t="s">
+      <c r="N57" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
       <c r="R57" s="46" t="s">
         <v>29</v>
       </c>
       <c r="S57" s="46"/>
       <c r="T57" s="46"/>
       <c r="U57" s="46"/>
-      <c r="V57" s="47" t="s">
+      <c r="V57" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="W57" s="47"/>
-      <c r="X57" s="47"/>
-      <c r="Y57" s="47"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="60"/>
     </row>
     <row r="58" spans="4:33" x14ac:dyDescent="0.2">
       <c r="I58" s="35" t="s">
@@ -5306,24 +5309,24 @@
       <c r="S62" s="46"/>
       <c r="T62" s="46"/>
       <c r="U62" s="46"/>
-      <c r="V62" s="48" t="s">
+      <c r="V62" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W62" s="48"/>
-      <c r="X62" s="48"/>
-      <c r="Y62" s="48"/>
+      <c r="W62" s="47"/>
+      <c r="X62" s="47"/>
+      <c r="Y62" s="47"/>
       <c r="Z62" s="46" t="s">
         <v>29</v>
       </c>
       <c r="AA62" s="46"/>
       <c r="AB62" s="46"/>
       <c r="AC62" s="46"/>
-      <c r="AD62" s="47" t="s">
+      <c r="AD62" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AE62" s="47"/>
-      <c r="AF62" s="47"/>
-      <c r="AG62" s="47"/>
+      <c r="AE62" s="60"/>
+      <c r="AF62" s="60"/>
+      <c r="AG62" s="60"/>
     </row>
     <row r="63" spans="4:33" x14ac:dyDescent="0.2">
       <c r="Q63" s="35" t="s">
@@ -5378,11 +5381,43 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="57">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="Z62:AC62"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="Z42:AC42"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="R37:U37"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="H17:S17"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:U25"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:S15"/>
     <mergeCell ref="Z3:AC3"/>
@@ -5398,43 +5433,11 @@
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="H13:S13"/>
-    <mergeCell ref="H17:S17"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="R37:U37"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="Z42:AC42"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="Z62:AC62"/>
-    <mergeCell ref="AD62:AG62"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0263888888888888" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/schedules/HIB.xlsx
+++ b/schedules/HIB.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCH\TCHWorkspaces\iris006-ws\fv\schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCHWorkspaceJava6\fv\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="0" windowWidth="14295" windowHeight="8190" tabRatio="330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7755" yWindow="0" windowWidth="14295" windowHeight="8190" tabRatio="330"/>
   </bookViews>
   <sheets>
     <sheet name="Schedules" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$J$231</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -341,9 +341,6 @@
     <t>MenHibrix</t>
   </si>
   <si>
-    <t>128, 1330, 1340, 136, 1350, 113, 121, 1320, 115, 121, 213</t>
-  </si>
-  <si>
     <t>Meningococcal C/Y-HIB PRP 148 Meningococcal C/Y-HIB PRP</t>
   </si>
   <si>
@@ -441,12 +438,15 @@
   </si>
   <si>
     <t>DTaP/IPV/Hib (Non-US)</t>
+  </si>
+  <si>
+    <t>128, 1330, 1340, 136, 1350, 113, 121, 1320, 115, 121, 213, 227</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -881,28 +881,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,24 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -970,6 +934,42 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,7 +1075,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,2138 +1457,2140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="32" customWidth="1"/>
-    <col min="2" max="5" width="14.28515625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="32" customWidth="1"/>
-    <col min="11" max="11" width="2" style="32" customWidth="1"/>
-    <col min="12" max="16" width="11.5703125" style="32"/>
-    <col min="17" max="17" width="6.28515625" style="32" customWidth="1"/>
-    <col min="18" max="22" width="11.5703125" style="32"/>
-    <col min="23" max="23" width="6.28515625" style="32" customWidth="1"/>
-    <col min="24" max="24" width="3.28515625" style="32" customWidth="1"/>
-    <col min="25" max="16384" width="11.5703125" style="32"/>
+    <col min="1" max="1" width="1.5703125" style="17" customWidth="1"/>
+    <col min="2" max="5" width="14.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="2" style="17" customWidth="1"/>
+    <col min="12" max="16" width="11.5703125" style="17"/>
+    <col min="17" max="17" width="6.28515625" style="17" customWidth="1"/>
+    <col min="18" max="22" width="11.5703125" style="17"/>
+    <col min="23" max="23" width="6.28515625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="3.28515625" style="17" customWidth="1"/>
+    <col min="25" max="16384" width="11.5703125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="23"/>
+      <c r="F3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="F4" s="41" t="s">
+      <c r="D4" s="26"/>
+      <c r="F4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="41" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="40">
+      <c r="I4" s="26"/>
+      <c r="J4" s="24">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="F5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="24">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="F6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="24">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="F7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="24">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="F8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="24">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="25">
+        <v>113</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="F9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="24">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="25">
+        <v>-7</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="F10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="24">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="25">
+        <v>-12</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="F11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="24">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="25">
+        <v>-15</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="F12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="24">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="24">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="F14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="24">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="F5" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="40">
+      <c r="G15" s="27"/>
+      <c r="H15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="24">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="24">
+        <v>-7</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="24">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="24">
+        <v>-12</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="24">
+        <v>-15</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="33">
+        <v>1</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="34"/>
+      <c r="C64" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="24"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="36"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="37"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="34"/>
+      <c r="C84" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="36"/>
+      <c r="D90" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="36"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="37"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="24"/>
+      <c r="E95" s="37"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="24"/>
+      <c r="E96" s="37"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="34"/>
+      <c r="C103" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="36"/>
+      <c r="D109" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="36"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="24"/>
+      <c r="E113" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="24" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="F6" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="40">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44" t="s">
+      <c r="D114" s="24"/>
+      <c r="E114" s="37"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="F7" s="41" t="s">
+      <c r="C115" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" s="24"/>
+      <c r="E116" s="37"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="24">
         <v>1</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="40">
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="34"/>
+      <c r="C123" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="36"/>
+      <c r="D129" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" s="36"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D133" s="24"/>
+      <c r="E133" s="37"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C134" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" s="44"/>
+      <c r="D139" s="44"/>
+      <c r="E139" s="44"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="34"/>
+      <c r="C140" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C146" s="36"/>
+      <c r="D146" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E146" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="36"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D150" s="24"/>
+      <c r="E150" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D151" s="24"/>
+      <c r="E151" s="37"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D152" s="24"/>
+      <c r="E152" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153" s="24"/>
+      <c r="E153" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E157" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C158" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C159" s="44"/>
+      <c r="D159" s="44"/>
+      <c r="E159" s="44"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="34"/>
+      <c r="C160" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C163" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B166" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C166" s="36"/>
+      <c r="D166" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E166" s="24"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C167" s="36"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C168" s="44"/>
+      <c r="D168" s="44"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E169" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C170" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D170" s="24"/>
+      <c r="E170" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D171" s="24"/>
+      <c r="E171" s="37"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D172" s="24"/>
+      <c r="E172" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C173" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B174" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C174" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B176" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C177" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C178" s="44"/>
+      <c r="D178" s="44"/>
+      <c r="E178" s="44"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="34"/>
+      <c r="C179" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E179" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C181" s="24"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="24"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B182" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C182" s="24"/>
+      <c r="D182" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E182" s="24"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E183" s="24"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B184" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D184" s="24"/>
+      <c r="E184" s="24"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B185" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C185" s="36"/>
+      <c r="D185" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B186" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C186" s="36"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B187" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C187" s="44"/>
+      <c r="D187" s="44"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B188" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E188" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D189" s="24"/>
+      <c r="E189" s="37" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="F8" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="40">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B190" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D190" s="24"/>
+      <c r="E190" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D191" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C192" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B193" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C193" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C195" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E195" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C196" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C197" s="44"/>
+      <c r="D197" s="44"/>
+      <c r="E197" s="44"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="34"/>
+      <c r="C198" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E198" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B199" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C199" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D199" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B200" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C200" s="24"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B201" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C201" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B202" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D202" s="24"/>
+      <c r="E202" s="24"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B203" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C203" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B204" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204" s="36"/>
+      <c r="D204" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E204" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B205" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C205" s="36"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="24"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C206" s="44"/>
+      <c r="D206" s="44"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B207" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D207" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E207" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B208" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D208" s="24"/>
+      <c r="E208" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B209" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D209" s="24"/>
+      <c r="E209" s="37"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B210" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="41">
-        <v>113</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="F9" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="40">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="41">
-        <v>-7</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="F10" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="40">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="41">
-        <v>-12</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="F11" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="40">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="41">
-        <v>-15</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="F12" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="40">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F13" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="40">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="F14" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="40">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="37" t="s">
+      <c r="C210" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D210" s="24"/>
+      <c r="E210" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B211" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D211" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E211" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C212" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B213" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C213" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C215" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E215" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C216" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B217" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C217" s="44"/>
+      <c r="D217" s="44"/>
+      <c r="E217" s="44"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="34"/>
+      <c r="C218" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="40">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="40">
-        <v>-7</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="40">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="40">
-        <v>-12</v>
-      </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="50"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="40">
-        <v>-15</v>
-      </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-    </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-    </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-    </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-    </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="53" t="s">
+      <c r="D218" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E218" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B219" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C219" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D219" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C220" s="24"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="24"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B221" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C221" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D221" s="24"/>
+      <c r="E221" s="24"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B222" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D222" s="24"/>
+      <c r="E222" s="24"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B223" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C223" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D223" s="24"/>
+      <c r="E223" s="24"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B224" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C224" s="36"/>
+      <c r="D224" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B225" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C225" s="36"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="24"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B226" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C226" s="44"/>
+      <c r="D226" s="44"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B227" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="55">
-        <v>1</v>
-      </c>
-      <c r="D62" s="55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="56"/>
-      <c r="C64" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" s="40"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" s="37" t="s">
+      <c r="D227" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="37" t="s">
+      <c r="E227" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" s="40"/>
-      <c r="E75" s="59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="59"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="57" t="s">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B228" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D228" s="24"/>
+      <c r="E228" s="37"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B229" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="57" t="s">
+      <c r="C229" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B230" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" s="55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="56"/>
-      <c r="C84" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E85" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C87" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" s="58"/>
-      <c r="D90" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E90" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="58"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E93" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C94" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="59"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="59"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96" s="40"/>
-      <c r="E96" s="59"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C97" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C98" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C101" s="55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="56"/>
-      <c r="C103" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D104" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="40"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D106" s="40"/>
-      <c r="E106" s="40"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C107" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D107" s="40"/>
-      <c r="E107" s="40"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C108" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D108" s="40"/>
-      <c r="E108" s="40"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C109" s="58"/>
-      <c r="D109" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E109" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C110" s="58"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="40"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D112" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E112" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C113" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D113" s="40"/>
-      <c r="E113" s="59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D114" s="40"/>
-      <c r="E114" s="59"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D115" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E115" s="59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D116" s="40"/>
-      <c r="E116" s="59"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C117" s="40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C120" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D120" s="54"/>
-      <c r="E120" s="54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C121" s="55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="56"/>
-      <c r="C123" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E123" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C124" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D124" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E124" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="40"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C126" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D126" s="40"/>
-      <c r="E126" s="40"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C127" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D127" s="40"/>
-      <c r="E127" s="40"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C128" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D128" s="40"/>
-      <c r="E128" s="40"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C129" s="58"/>
-      <c r="D129" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E129" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C130" s="58"/>
-      <c r="D130" s="40"/>
-      <c r="E130" s="40"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C131" s="36"/>
-      <c r="D131" s="36"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E132" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D133" s="40"/>
-      <c r="E133" s="59"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C134" s="40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C135" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C137" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E137" s="54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C138" s="55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C139" s="36"/>
-      <c r="D139" s="36"/>
-      <c r="E139" s="36"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="56"/>
-      <c r="C140" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D140" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E140" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C141" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D141" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E141" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C142" s="40"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="40"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C143" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D143" s="40"/>
-      <c r="E143" s="40"/>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C144" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D144" s="40"/>
-      <c r="E144" s="40"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C145" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D145" s="40"/>
-      <c r="E145" s="40"/>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C146" s="58"/>
-      <c r="D146" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E146" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C147" s="58"/>
-      <c r="D147" s="40"/>
-      <c r="E147" s="40"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C148" s="36"/>
-      <c r="D148" s="36"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E149" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C150" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D150" s="40"/>
-      <c r="E150" s="59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D151" s="40"/>
-      <c r="E151" s="59"/>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D152" s="40"/>
-      <c r="E152" s="59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C153" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D153" s="40"/>
-      <c r="E153" s="59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C154" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C155" s="40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C157" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E157" s="54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C158" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C159" s="36"/>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="56"/>
-      <c r="C160" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D160" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E160" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C161" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D161" s="40"/>
-      <c r="E161" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C162" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D162" s="40"/>
-      <c r="E162" s="40"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C163" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D163" s="40"/>
-      <c r="E163" s="40"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C164" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D164" s="40"/>
-      <c r="E164" s="40"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C165" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D165" s="40"/>
-      <c r="E165" s="40"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C166" s="58"/>
-      <c r="D166" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E166" s="40"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C167" s="58"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="40"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C168" s="36"/>
-      <c r="D168" s="36"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B169" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C169" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D169" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E169" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C170" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D170" s="40"/>
-      <c r="E170" s="59" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D171" s="40"/>
-      <c r="E171" s="59"/>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B172" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D172" s="40"/>
-      <c r="E172" s="59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B173" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C173" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C174" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B176" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C176" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D176" s="54"/>
-      <c r="E176" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B177" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C177" s="55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B178" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C178" s="36"/>
-      <c r="D178" s="36"/>
-      <c r="E178" s="36"/>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B179" s="56"/>
-      <c r="C179" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D179" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E179" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B180" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C180" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D180" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E180" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B181" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C181" s="40"/>
-      <c r="D181" s="40"/>
-      <c r="E181" s="40"/>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B182" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C182" s="40"/>
-      <c r="D182" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E182" s="40"/>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B183" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C183" s="40"/>
-      <c r="D183" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E183" s="40"/>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B184" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C184" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D184" s="40"/>
-      <c r="E184" s="40"/>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B185" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C185" s="58"/>
-      <c r="D185" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E185" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B186" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C186" s="58"/>
-      <c r="D186" s="40"/>
-      <c r="E186" s="40"/>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B187" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C187" s="36"/>
-      <c r="D187" s="36"/>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B188" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C188" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D188" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E188" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B189" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C189" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D189" s="40"/>
-      <c r="E189" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B190" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C190" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D190" s="40"/>
-      <c r="E190" s="59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B191" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C191" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D191" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E191" s="59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B192" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C192" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B193" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C193" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B195" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C195" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E195" s="54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B196" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="C196" s="55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B197" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C197" s="36"/>
-      <c r="D197" s="36"/>
-      <c r="E197" s="36"/>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B198" s="56"/>
-      <c r="C198" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D198" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E198" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B199" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C199" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D199" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E199" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B200" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C200" s="40"/>
-      <c r="D200" s="40"/>
-      <c r="E200" s="40"/>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B201" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C201" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D201" s="40"/>
-      <c r="E201" s="40"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B202" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C202" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D202" s="40"/>
-      <c r="E202" s="40"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B203" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C203" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D203" s="40"/>
-      <c r="E203" s="40"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B204" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C204" s="58"/>
-      <c r="D204" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E204" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B205" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C205" s="58"/>
-      <c r="D205" s="40"/>
-      <c r="E205" s="40"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B206" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C206" s="36"/>
-      <c r="D206" s="36"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B207" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C207" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D207" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E207" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B208" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C208" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D208" s="40"/>
-      <c r="E208" s="59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B209" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C209" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D209" s="40"/>
-      <c r="E209" s="59"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B210" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D210" s="40"/>
-      <c r="E210" s="59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B211" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C211" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D211" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E211" s="59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B212" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C212" s="40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B213" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C213" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B215" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C215" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E215" s="54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B216" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C216" s="55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B217" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C217" s="36"/>
-      <c r="D217" s="36"/>
-      <c r="E217" s="36"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B218" s="56"/>
-      <c r="C218" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D218" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E218" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B219" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C219" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D219" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E219" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B220" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C220" s="40"/>
-      <c r="D220" s="40"/>
-      <c r="E220" s="40"/>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B221" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C221" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D221" s="40"/>
-      <c r="E221" s="40"/>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B222" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C222" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D222" s="40"/>
-      <c r="E222" s="40"/>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B223" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C223" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D223" s="40"/>
-      <c r="E223" s="40"/>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B224" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C224" s="58"/>
-      <c r="D224" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E224" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B225" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C225" s="58"/>
-      <c r="D225" s="40"/>
-      <c r="E225" s="40"/>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B226" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C226" s="36"/>
-      <c r="D226" s="36"/>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B227" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C227" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D227" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E227" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B228" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C228" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D228" s="40"/>
-      <c r="E228" s="59"/>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B229" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C229" s="40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B230" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C230" s="40">
+      <c r="C230" s="24">
         <v>2</v>
       </c>
     </row>
@@ -3596,14 +3598,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="24">
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B217:E217"/>
     <mergeCell ref="B226:D226"/>
     <mergeCell ref="F2:J2"/>
@@ -3620,6 +3614,14 @@
     <mergeCell ref="B131:D131"/>
     <mergeCell ref="B148:D148"/>
     <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3641,10 +3643,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3672,7 +3676,7 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B7&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C7&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Booster Dose" vaccineIds="128, 1330, 1340, 136, 1350, 113, 121, 1320, 115, 121, 213"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Booster Dose" vaccineIds="128, 1330, 1340, 136, 1350, 113, 121, 1320, 115, 121, 213, 227"/&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -4437,11 +4441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG64"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4457,48 +4461,48 @@
       </c>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="17" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="19" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="17" t="s">
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="20" t="s">
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="21" t="s">
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
@@ -4531,62 +4535,62 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26" t="s">
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27" t="s">
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="26" t="s">
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="28" t="s">
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H8" s="9"/>
@@ -4611,48 +4615,48 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31" t="s">
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H12" s="9"/>
@@ -4669,38 +4673,38 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24" t="s">
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H16" s="9"/>
@@ -4717,20 +4721,20 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
     </row>
     <row r="23" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -4738,48 +4742,48 @@
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="17" t="s">
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="19" t="s">
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="17" t="s">
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="20" t="s">
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="21" t="s">
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
@@ -4812,14 +4816,14 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -4852,28 +4856,28 @@
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="19" t="s">
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="17" t="s">
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="18" t="s">
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
     </row>
     <row r="33" spans="6:33" x14ac:dyDescent="0.2">
       <c r="G33" s="14" t="s">
@@ -4930,28 +4934,28 @@
       </c>
     </row>
     <row r="37" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="19" t="s">
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="17" t="s">
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="18" t="s">
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
     </row>
     <row r="38" spans="6:33" x14ac:dyDescent="0.2">
       <c r="I38" s="14" t="s">
@@ -5008,28 +5012,28 @@
       </c>
     </row>
     <row r="42" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="19" t="s">
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="17" t="s">
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="18" t="s">
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="AA42" s="18"/>
-      <c r="AB42" s="18"/>
-      <c r="AC42" s="18"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
     </row>
     <row r="43" spans="6:33" x14ac:dyDescent="0.2">
       <c r="M43" s="14" t="s">
@@ -5086,28 +5090,28 @@
       </c>
     </row>
     <row r="47" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="19" t="s">
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="17" t="s">
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="17"/>
-      <c r="AC47" s="17"/>
-      <c r="AD47" s="18" t="s">
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="45"/>
+      <c r="AD47" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="AE47" s="18"/>
-      <c r="AF47" s="18"/>
-      <c r="AG47" s="18"/>
+      <c r="AE47" s="59"/>
+      <c r="AF47" s="59"/>
+      <c r="AG47" s="59"/>
     </row>
     <row r="48" spans="6:33" x14ac:dyDescent="0.2">
       <c r="Q48" s="14" t="s">
@@ -5164,28 +5168,28 @@
       </c>
     </row>
     <row r="52" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="19" t="s">
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="17" t="s">
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="18" t="s">
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
     </row>
     <row r="53" spans="4:33" x14ac:dyDescent="0.2">
       <c r="G53" s="14" t="s">
@@ -5246,28 +5250,28 @@
       </c>
     </row>
     <row r="57" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="19" t="s">
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="17" t="s">
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="18" t="s">
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
     </row>
     <row r="58" spans="4:33" x14ac:dyDescent="0.2">
       <c r="I58" s="14" t="s">
@@ -5328,28 +5332,28 @@
       </c>
     </row>
     <row r="62" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="19" t="s">
+      <c r="R62" s="45"/>
+      <c r="S62" s="45"/>
+      <c r="T62" s="45"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="17" t="s">
+      <c r="W62" s="46"/>
+      <c r="X62" s="46"/>
+      <c r="Y62" s="46"/>
+      <c r="Z62" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AA62" s="17"/>
-      <c r="AB62" s="17"/>
-      <c r="AC62" s="17"/>
-      <c r="AD62" s="18" t="s">
+      <c r="AA62" s="45"/>
+      <c r="AB62" s="45"/>
+      <c r="AC62" s="45"/>
+      <c r="AD62" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="AE62" s="18"/>
-      <c r="AF62" s="18"/>
-      <c r="AG62" s="18"/>
+      <c r="AE62" s="59"/>
+      <c r="AF62" s="59"/>
+      <c r="AG62" s="59"/>
     </row>
     <row r="63" spans="4:33" x14ac:dyDescent="0.2">
       <c r="Q63" s="14" t="s">
@@ -5404,11 +5408,43 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="57">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="Z62:AC62"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="Z42:AC42"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="R37:U37"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="H17:S17"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:U25"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:S15"/>
     <mergeCell ref="Z3:AC3"/>
@@ -5424,43 +5460,11 @@
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="H13:S13"/>
-    <mergeCell ref="H17:S17"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="R37:U37"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="Z42:AC42"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="Z62:AC62"/>
-    <mergeCell ref="AD62:AG62"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0263888888888888" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
